--- a/src/main/resources/jxls_templates/customerm_import.xlsx
+++ b/src/main/resources/jxls_templates/customerm_import.xlsx
@@ -41,28 +41,28 @@
     <t>分管部门编码</t>
   </si>
   <si>
-    <t>专管业务员</t>
-  </si>
-  <si>
-    <t>币种</t>
-  </si>
-  <si>
-    <t>客户管理类型</t>
+    <t>专管业务员编码</t>
+  </si>
+  <si>
+    <t>币种编码</t>
+  </si>
+  <si>
+    <t>客户管理类型编码</t>
   </si>
   <si>
     <t>对应供应商编码</t>
   </si>
   <si>
-    <t>客户级别</t>
-  </si>
-  <si>
-    <t>结算方式</t>
-  </si>
-  <si>
-    <t>出货单据类型</t>
-  </si>
-  <si>
-    <t>客户属性</t>
+    <t>客户级别编码</t>
+  </si>
+  <si>
+    <t>结算方式编码</t>
+  </si>
+  <si>
+    <t>出货单据类型编码</t>
+  </si>
+  <si>
+    <t>客户属性编码</t>
   </si>
   <si>
     <t>*位置编码</t>
@@ -124,9 +124,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -166,9 +166,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,27 +225,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -209,11 +233,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +265,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -232,24 +280,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,54 +296,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,187 +319,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,46 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,16 +553,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1124,7 +1124,8 @@
     <col min="6" max="6" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="15.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="16.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="11.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="19.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="16.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="14.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="15.3333333333333" customWidth="1"/>
@@ -1151,7 +1152,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
+    <row r="2" s="2" customFormat="1" ht="28.8" spans="1:15">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
